--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -173,7 +173,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username=test_deposit&amp;password=test_deposit&amp;grant_type=password&amp;scope=server</t>
+    <t>username=test_deposit&amp;password=test000111222&amp;grant_type=password&amp;scope=server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +531,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
